--- a/Kosten-Nutzen Analyse.xlsx
+++ b/Kosten-Nutzen Analyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -76,13 +76,31 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -350,60 +368,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +716,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,42 +729,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -745,27 +772,27 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>0.2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <f>C4*B4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f>E4*$B4</f>
         <v>0.2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <f>G4*$B4</f>
         <v>1</v>
       </c>
@@ -774,56 +801,56 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>0.2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:D8" si="0">C5*B5</f>
         <v>1.8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>7</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F8" si="1">E5*$B5</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="G5" s="10">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="8">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" ref="H5:H8" si="2">G5*$B5</f>
-        <v>1</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>0.2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>8</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>8</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
@@ -832,27 +859,27 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>0.1</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>9</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -861,27 +888,27 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>0.3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
@@ -890,40 +917,40 @@
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <f>SUM(C4:C8)</f>
         <v>35</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="18">
+      <c r="D9" s="7"/>
+      <c r="E9" s="16">
         <f>SUM(E4:E8)</f>
         <v>32</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18">
+      <c r="F9" s="17"/>
+      <c r="G9" s="16">
         <f>SUM(G4:G8)</f>
-        <v>27</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="23">
         <f>SUM(D4:D8)</f>
         <v>7.1</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="25">
         <f>SUM(F4:F8)</f>
         <v>6.2000000000000011</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="24">
         <f>SUM(H4:H8)</f>
-        <v>6.1</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
